--- a/IMS/App_Data/DepartmentCategory.xlsx
+++ b/IMS/App_Data/DepartmentCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>非手术科室</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全院信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>病理科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,13 +130,49 @@
   </si>
   <si>
     <t>介入血管科</t>
+  </si>
+  <si>
+    <t>总监办</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质控部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医务部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质控部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医务部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案统计室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案统计室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +193,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,10 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,112 +545,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.734375" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -616,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -632,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -640,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -648,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -656,12 +698,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/IMS/App_Data/DepartmentCategory.xlsx
+++ b/IMS/App_Data/DepartmentCategory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biges\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMS\IMS\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,6 +26,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
+    <t>91e9367d-00d2-460e-b457-13ed40245e01</t>
+  </si>
+  <si>
+    <t>0194dfe0-eccd-45b7-abae-71f4d0669540</t>
+  </si>
+  <si>
+    <t>395f22a0-933b-4cf6-ba52-6072b6139710</t>
+  </si>
+  <si>
+    <t>522a48eb-3a75-494c-8953-1f4b1eb073a1</t>
+  </si>
+  <si>
+    <t>d4bb4536-0764-4837-a82c-9a2de0f25bc7</t>
+  </si>
+  <si>
+    <t>53f83a9f-008c-4cd6-968a-a8bf625b9a3d</t>
+  </si>
+  <si>
+    <t>e28f5faa-5edf-4ca4-9814-9e0e2c3ca0fd</t>
+  </si>
+  <si>
+    <t>cc7e2485-f0ce-4de9-9a21-3da2c4c4ce68</t>
+  </si>
+  <si>
+    <t>64a75551-06a6-44f1-baf0-b557a520c3a9</t>
+  </si>
+  <si>
+    <t>78107ea1-f6be-4c7a-bd6b-1da7f67c6ad8</t>
+  </si>
+  <si>
+    <t>6a754431-fc9e-4413-b06c-6d1d22d63b42</t>
+  </si>
+  <si>
+    <t>f0db0ce5-9e59-4246-b416-4e3cb1c5fd39</t>
+  </si>
+  <si>
+    <t>8c874993-5208-4569-a81d-34d7aeefe6c8</t>
+  </si>
+  <si>
     <t>科室分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,91 +77,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91e9367d-00d2-460e-b457-13ed40245e01</t>
-  </si>
-  <si>
     <t>超声科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0194dfe0-eccd-45b7-abae-71f4d0669540</t>
-  </si>
-  <si>
     <t>放射科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>395f22a0-933b-4cf6-ba52-6072b6139710</t>
-  </si>
-  <si>
-    <t>522a48eb-3a75-494c-8953-1f4b1eb073a1</t>
-  </si>
-  <si>
-    <t>d4bb4536-0764-4837-a82c-9a2de0f25bc7</t>
+    <t>非手术科室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检验科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>53f83a9f-008c-4cd6-968a-a8bf625b9a3d</t>
-  </si>
-  <si>
     <t>康复医学科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e28f5faa-5edf-4ca4-9814-9e0e2c3ca0fd</t>
-  </si>
-  <si>
     <t>麻醉科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cc7e2485-f0ce-4de9-9a21-3da2c4c4ce68</t>
-  </si>
-  <si>
     <t>手术科室系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>64a75551-06a6-44f1-baf0-b557a520c3a9</t>
-  </si>
-  <si>
-    <t>78107ea1-f6be-4c7a-bd6b-1da7f67c6ad8</t>
+    <t>血透室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院级系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6a754431-fc9e-4413-b06c-6d1d22d63b42</t>
-  </si>
-  <si>
     <t>重症医学科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f0db0ce5-9e59-4246-b416-4e3cb1c5fd39</t>
-  </si>
-  <si>
-    <t>非手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血透室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行政管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8c874993-5208-4569-a81d-34d7aeefe6c8</t>
   </si>
 </sst>
 </file>
@@ -500,114 +500,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
